--- a/Profils.xlsx
+++ b/Profils.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours M2\S1\Transparence des algorithmes\projet-transparence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC3A41-AA04-4208-95AB-DDFD88BC2F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1882739-0487-4FA1-AD59-A31D8E27679F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00D029A9-06E1-4986-81E3-CA86D51FF084}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B57CFB8-2499-4956-AD4C-5EF78FFE67BD}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="71" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,19 +885,19 @@
         <v>14</v>
       </c>
       <c r="I19">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="J19">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L19">
         <v>0.3</v>
       </c>
       <c r="M19">
-        <v>17.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="N19">
         <v>0.9</v>
@@ -929,19 +929,19 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>16.600000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="N20">
         <v>0.8</v>
@@ -985,7 +985,7 @@
         <v>0.7</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="N21">
         <v>0.5</v>
@@ -1017,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="I22">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J22">
         <v>6.3</v>
@@ -1029,7 +1029,7 @@
         <v>0.9</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="N22">
         <v>0.2</v>
